--- a/src/assets/files/TemplateMigration.xlsx
+++ b/src/assets/files/TemplateMigration.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maria.gonzalez\Desktop\MisCosas\Concesur\Concenet\Desarrollo\Migrations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEF8E376-E2B9-442B-A775-9B51B32682C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D35F434-D6FF-4A45-82E2-98C40226D0F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{17C47C1A-1AD3-4394-8AEA-2500455D18C9}"/>
   </bookViews>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="80">
   <si>
     <t>id_ficha</t>
   </si>
@@ -283,6 +283,12 @@
   </si>
   <si>
     <t>02</t>
+  </si>
+  <si>
+    <t>123XX</t>
+  </si>
+  <si>
+    <t>456XX</t>
   </si>
 </sst>
 </file>
@@ -337,7 +343,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -355,6 +361,7 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -672,7 +679,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F838ABF-69E7-4C86-88E9-047EC46B2B9F}">
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -689,7 +698,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
@@ -730,6 +739,9 @@
       <c r="B2" s="5">
         <v>1</v>
       </c>
+      <c r="C2" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="E2" s="5">
         <v>1</v>
       </c>
@@ -758,6 +770,9 @@
       </c>
       <c r="B3" s="5">
         <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>75</v>
@@ -5391,7 +5406,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75B72810-D862-407F-B147-1AF128947F2D}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5412,7 +5429,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/src/assets/files/TemplateMigration.xlsx
+++ b/src/assets/files/TemplateMigration.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maria.gonzalez\Desktop\MisCosas\Concesur\Concenet\Desarrollo\Migrations\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maria.gonzalez\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D35F434-D6FF-4A45-82E2-98C40226D0F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E50DDEA1-A1DB-43DC-BD7E-662D65188FC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{17C47C1A-1AD3-4394-8AEA-2500455D18C9}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="7" xr2:uid="{17C47C1A-1AD3-4394-8AEA-2500455D18C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Fichas" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="83">
   <si>
     <t>id_ficha</t>
   </si>
@@ -289,6 +289,15 @@
   </si>
   <si>
     <t>456XX</t>
+  </si>
+  <si>
+    <t>empresa</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>NO</t>
   </si>
 </sst>
 </file>
@@ -298,7 +307,7 @@
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="dd\-mm\-yyyy\ hh:mm"/>
+    <numFmt numFmtId="165" formatCode="dd\-mm\-yyyy\ hh:mm"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -357,8 +366,8 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -679,25 +688,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F838ABF-69E7-4C86-88E9-047EC46B2B9F}">
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="11.42578125" style="5"/>
-    <col min="3" max="3" width="19.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="11.453125" style="5"/>
+    <col min="3" max="3" width="19.1796875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.140625" style="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.453125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.7265625" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.1796875" style="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.1796875" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.54296875" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.453125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -732,7 +741,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -764,7 +773,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -799,7 +808,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="6"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
@@ -807,7 +816,7 @@
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="6"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
@@ -815,7 +824,7 @@
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="6"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -823,7 +832,7 @@
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="6"/>
       <c r="F7" s="6"/>
       <c r="G7" s="6"/>
@@ -831,7 +840,7 @@
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="6"/>
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
@@ -839,7 +848,7 @@
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="6"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
@@ -847,7 +856,7 @@
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
@@ -855,7 +864,7 @@
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="6"/>
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
@@ -863,7 +872,7 @@
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="6"/>
@@ -871,7 +880,7 @@
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="6"/>
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
@@ -879,7 +888,7 @@
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="6"/>
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
@@ -887,7 +896,7 @@
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="6"/>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
@@ -895,7 +904,7 @@
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="6"/>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
@@ -903,7 +912,7 @@
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="6"/>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
@@ -911,7 +920,7 @@
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="6"/>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
@@ -919,7 +928,7 @@
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
@@ -927,7 +936,7 @@
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
@@ -935,7 +944,7 @@
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="6"/>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
@@ -943,7 +952,7 @@
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" s="6"/>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
@@ -951,7 +960,7 @@
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" s="6"/>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
@@ -959,7 +968,7 @@
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="6"/>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
@@ -967,7 +976,7 @@
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="6"/>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
@@ -975,7 +984,7 @@
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" s="6"/>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
@@ -983,7 +992,7 @@
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" s="6"/>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
@@ -991,7 +1000,7 @@
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" s="6"/>
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
@@ -999,7 +1008,7 @@
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" s="6"/>
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
@@ -1007,7 +1016,7 @@
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" s="6"/>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
@@ -1030,14 +1039,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="11.42578125" style="5"/>
-    <col min="3" max="3" width="15.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="1"/>
+    <col min="1" max="2" width="11.453125" style="5"/>
+    <col min="3" max="3" width="15.7265625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.453125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1051,7 +1060,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -1065,7 +1074,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -1079,1387 +1088,1387 @@
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="8"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="8"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="8"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="8"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="8"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="8"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="8"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="8"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="8"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="8"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="8"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="8"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="8"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="8"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
       <c r="C20" s="8"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="8"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
       <c r="C22" s="8"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
       <c r="C23" s="8"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="8"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
       <c r="C25" s="8"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="6"/>
       <c r="B26" s="6"/>
       <c r="C26" s="8"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
       <c r="C27" s="8"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="6"/>
       <c r="B28" s="6"/>
       <c r="C28" s="8"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
       <c r="C29" s="8"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
       <c r="C30" s="8"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="6"/>
       <c r="B31" s="6"/>
       <c r="C31" s="8"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="6"/>
       <c r="B32" s="6"/>
       <c r="C32" s="8"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="6"/>
       <c r="B33" s="6"/>
       <c r="C33" s="8"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
       <c r="C34" s="8"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
       <c r="C35" s="8"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
       <c r="C36" s="8"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" s="6"/>
       <c r="B37" s="6"/>
       <c r="C37" s="8"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
       <c r="C38" s="8"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" s="6"/>
       <c r="B39" s="6"/>
       <c r="C39" s="8"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" s="6"/>
       <c r="B40" s="6"/>
       <c r="C40" s="8"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" s="6"/>
       <c r="B41" s="6"/>
       <c r="C41" s="8"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" s="6"/>
       <c r="B42" s="6"/>
       <c r="C42" s="8"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" s="6"/>
       <c r="B43" s="6"/>
       <c r="C43" s="8"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" s="6"/>
       <c r="B44" s="6"/>
       <c r="C44" s="8"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" s="6"/>
       <c r="B45" s="6"/>
       <c r="C45" s="8"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" s="6"/>
       <c r="B46" s="6"/>
       <c r="C46" s="8"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" s="6"/>
       <c r="B47" s="6"/>
       <c r="C47" s="8"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
       <c r="C48" s="8"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
       <c r="C49" s="8"/>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
       <c r="C50" s="8"/>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
       <c r="C51" s="8"/>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
       <c r="C52" s="8"/>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
       <c r="C53" s="8"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" s="6"/>
       <c r="B54" s="6"/>
       <c r="C54" s="8"/>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" s="6"/>
       <c r="B55" s="6"/>
       <c r="C55" s="8"/>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
       <c r="C56" s="8"/>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
       <c r="C57" s="8"/>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
       <c r="C58" s="8"/>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" s="6"/>
       <c r="B59" s="6"/>
       <c r="C59" s="8"/>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" s="6"/>
       <c r="B60" s="6"/>
       <c r="C60" s="8"/>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" s="6"/>
       <c r="B61" s="6"/>
       <c r="C61" s="8"/>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" s="6"/>
       <c r="B62" s="6"/>
       <c r="C62" s="8"/>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" s="6"/>
       <c r="B63" s="6"/>
       <c r="C63" s="8"/>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" s="6"/>
       <c r="B64" s="6"/>
       <c r="C64" s="8"/>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" s="6"/>
       <c r="B65" s="6"/>
       <c r="C65" s="8"/>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" s="6"/>
       <c r="B66" s="6"/>
       <c r="C66" s="8"/>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" s="6"/>
       <c r="B67" s="6"/>
       <c r="C67" s="8"/>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" s="6"/>
       <c r="B68" s="6"/>
       <c r="C68" s="8"/>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" s="6"/>
       <c r="B69" s="6"/>
       <c r="C69" s="8"/>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" s="6"/>
       <c r="B70" s="6"/>
       <c r="C70" s="8"/>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" s="6"/>
       <c r="B71" s="6"/>
       <c r="C71" s="8"/>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" s="6"/>
       <c r="B72" s="6"/>
       <c r="C72" s="8"/>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" s="6"/>
       <c r="B73" s="6"/>
       <c r="C73" s="8"/>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" s="6"/>
       <c r="B74" s="6"/>
       <c r="C74" s="8"/>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" s="6"/>
       <c r="B75" s="6"/>
       <c r="C75" s="8"/>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" s="6"/>
       <c r="B76" s="6"/>
       <c r="C76" s="8"/>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77" s="6"/>
       <c r="B77" s="6"/>
       <c r="C77" s="8"/>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A78" s="6"/>
       <c r="B78" s="6"/>
       <c r="C78" s="8"/>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79" s="6"/>
       <c r="B79" s="6"/>
       <c r="C79" s="8"/>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A80" s="6"/>
       <c r="B80" s="6"/>
       <c r="C80" s="8"/>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" s="6"/>
       <c r="B81" s="6"/>
       <c r="C81" s="8"/>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" s="6"/>
       <c r="B82" s="6"/>
       <c r="C82" s="8"/>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" s="6"/>
       <c r="B83" s="6"/>
       <c r="C83" s="8"/>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" s="6"/>
       <c r="B84" s="6"/>
       <c r="C84" s="8"/>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85" s="6"/>
       <c r="B85" s="6"/>
       <c r="C85" s="8"/>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A86" s="6"/>
       <c r="B86" s="6"/>
       <c r="C86" s="8"/>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A87" s="6"/>
       <c r="B87" s="6"/>
       <c r="C87" s="8"/>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A88" s="6"/>
       <c r="B88" s="6"/>
       <c r="C88" s="8"/>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A89" s="6"/>
       <c r="B89" s="6"/>
       <c r="C89" s="8"/>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A90" s="6"/>
       <c r="B90" s="6"/>
       <c r="C90" s="8"/>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A91" s="6"/>
       <c r="B91" s="6"/>
       <c r="C91" s="8"/>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A92" s="6"/>
       <c r="B92" s="6"/>
       <c r="C92" s="8"/>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A93" s="6"/>
       <c r="B93" s="6"/>
       <c r="C93" s="8"/>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A94" s="6"/>
       <c r="B94" s="6"/>
       <c r="C94" s="8"/>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A95" s="6"/>
       <c r="B95" s="6"/>
       <c r="C95" s="8"/>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A96" s="6"/>
       <c r="B96" s="6"/>
       <c r="C96" s="8"/>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A97" s="6"/>
       <c r="B97" s="6"/>
       <c r="C97" s="8"/>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A98" s="6"/>
       <c r="B98" s="6"/>
       <c r="C98" s="8"/>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A99" s="6"/>
       <c r="B99" s="6"/>
       <c r="C99" s="8"/>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A100" s="6"/>
       <c r="B100" s="6"/>
       <c r="C100" s="8"/>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A101" s="6"/>
       <c r="B101" s="6"/>
       <c r="C101" s="8"/>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A102" s="6"/>
       <c r="B102" s="6"/>
       <c r="C102" s="8"/>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A103" s="6"/>
       <c r="B103" s="6"/>
       <c r="C103" s="8"/>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A104" s="6"/>
       <c r="B104" s="6"/>
       <c r="C104" s="8"/>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A105" s="6"/>
       <c r="B105" s="6"/>
       <c r="C105" s="8"/>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A106" s="6"/>
       <c r="B106" s="6"/>
       <c r="C106" s="8"/>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A107" s="6"/>
       <c r="B107" s="6"/>
       <c r="C107" s="8"/>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A108" s="6"/>
       <c r="B108" s="6"/>
       <c r="C108" s="8"/>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A109" s="6"/>
       <c r="B109" s="6"/>
       <c r="C109" s="8"/>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A110" s="6"/>
       <c r="B110" s="6"/>
       <c r="C110" s="8"/>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A111" s="6"/>
       <c r="B111" s="6"/>
       <c r="C111" s="8"/>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A112" s="6"/>
       <c r="B112" s="6"/>
       <c r="C112" s="8"/>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A113" s="6"/>
       <c r="B113" s="6"/>
       <c r="C113" s="8"/>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A114" s="6"/>
       <c r="B114" s="6"/>
       <c r="C114" s="8"/>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A115" s="6"/>
       <c r="B115" s="6"/>
       <c r="C115" s="8"/>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A116" s="6"/>
       <c r="B116" s="6"/>
       <c r="C116" s="8"/>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A117" s="6"/>
       <c r="B117" s="6"/>
       <c r="C117" s="8"/>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A118" s="6"/>
       <c r="B118" s="6"/>
       <c r="C118" s="8"/>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A119" s="6"/>
       <c r="B119" s="6"/>
       <c r="C119" s="8"/>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A120" s="6"/>
       <c r="B120" s="6"/>
       <c r="C120" s="8"/>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A121" s="6"/>
       <c r="B121" s="6"/>
       <c r="C121" s="8"/>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A122" s="6"/>
       <c r="B122" s="6"/>
       <c r="C122" s="8"/>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A123" s="6"/>
       <c r="B123" s="6"/>
       <c r="C123" s="8"/>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A124" s="6"/>
       <c r="B124" s="6"/>
       <c r="C124" s="8"/>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A125" s="6"/>
       <c r="B125" s="6"/>
       <c r="C125" s="8"/>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A126" s="6"/>
       <c r="B126" s="6"/>
       <c r="C126" s="8"/>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A127" s="6"/>
       <c r="B127" s="6"/>
       <c r="C127" s="8"/>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A128" s="6"/>
       <c r="B128" s="6"/>
       <c r="C128" s="8"/>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A129" s="6"/>
       <c r="B129" s="6"/>
       <c r="C129" s="8"/>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A130" s="6"/>
       <c r="B130" s="6"/>
       <c r="C130" s="8"/>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A131" s="6"/>
       <c r="B131" s="6"/>
       <c r="C131" s="8"/>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A132" s="6"/>
       <c r="B132" s="6"/>
       <c r="C132" s="8"/>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A133" s="6"/>
       <c r="B133" s="6"/>
       <c r="C133" s="8"/>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A134" s="6"/>
       <c r="B134" s="6"/>
       <c r="C134" s="8"/>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A135" s="6"/>
       <c r="B135" s="6"/>
       <c r="C135" s="8"/>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A136" s="6"/>
       <c r="B136" s="6"/>
       <c r="C136" s="8"/>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A137" s="6"/>
       <c r="B137" s="6"/>
       <c r="C137" s="8"/>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A138" s="6"/>
       <c r="B138" s="6"/>
       <c r="C138" s="8"/>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A139" s="6"/>
       <c r="B139" s="6"/>
       <c r="C139" s="8"/>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A140" s="6"/>
       <c r="B140" s="6"/>
       <c r="C140" s="8"/>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A141" s="6"/>
       <c r="B141" s="6"/>
       <c r="C141" s="8"/>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A142" s="6"/>
       <c r="B142" s="6"/>
       <c r="C142" s="8"/>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A143" s="6"/>
       <c r="B143" s="6"/>
       <c r="C143" s="8"/>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A144" s="6"/>
       <c r="B144" s="6"/>
       <c r="C144" s="8"/>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A145" s="6"/>
       <c r="B145" s="6"/>
       <c r="C145" s="8"/>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A146" s="6"/>
       <c r="B146" s="6"/>
       <c r="C146" s="8"/>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A147" s="6"/>
       <c r="B147" s="6"/>
       <c r="C147" s="8"/>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A148" s="6"/>
       <c r="B148" s="6"/>
       <c r="C148" s="8"/>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A149" s="6"/>
       <c r="B149" s="6"/>
       <c r="C149" s="8"/>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A150" s="6"/>
       <c r="B150" s="6"/>
       <c r="C150" s="8"/>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A151" s="6"/>
       <c r="B151" s="6"/>
       <c r="C151" s="8"/>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A152" s="6"/>
       <c r="B152" s="6"/>
       <c r="C152" s="8"/>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A153" s="6"/>
       <c r="B153" s="6"/>
       <c r="C153" s="8"/>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A154" s="6"/>
       <c r="B154" s="6"/>
       <c r="C154" s="8"/>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A155" s="6"/>
       <c r="B155" s="6"/>
       <c r="C155" s="8"/>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A156" s="6"/>
       <c r="B156" s="6"/>
       <c r="C156" s="8"/>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A157" s="6"/>
       <c r="B157" s="6"/>
       <c r="C157" s="8"/>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A158" s="6"/>
       <c r="B158" s="6"/>
       <c r="C158" s="8"/>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A159" s="6"/>
       <c r="B159" s="6"/>
       <c r="C159" s="8"/>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A160" s="6"/>
       <c r="B160" s="6"/>
       <c r="C160" s="8"/>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A161" s="6"/>
       <c r="B161" s="6"/>
       <c r="C161" s="8"/>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A162" s="6"/>
       <c r="B162" s="6"/>
       <c r="C162" s="8"/>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A163" s="6"/>
       <c r="B163" s="6"/>
       <c r="C163" s="8"/>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A164" s="6"/>
       <c r="B164" s="6"/>
       <c r="C164" s="8"/>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A165" s="6"/>
       <c r="B165" s="6"/>
       <c r="C165" s="8"/>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A166" s="6"/>
       <c r="B166" s="6"/>
       <c r="C166" s="8"/>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A167" s="6"/>
       <c r="B167" s="6"/>
       <c r="C167" s="8"/>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A168" s="6"/>
       <c r="B168" s="6"/>
       <c r="C168" s="8"/>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A169" s="6"/>
       <c r="B169" s="6"/>
       <c r="C169" s="8"/>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A170" s="6"/>
       <c r="B170" s="6"/>
       <c r="C170" s="8"/>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A171" s="6"/>
       <c r="B171" s="6"/>
       <c r="C171" s="8"/>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A172" s="6"/>
       <c r="B172" s="6"/>
       <c r="C172" s="8"/>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A173" s="6"/>
       <c r="B173" s="6"/>
       <c r="C173" s="8"/>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A174" s="6"/>
       <c r="B174" s="6"/>
       <c r="C174" s="8"/>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A175" s="6"/>
       <c r="B175" s="6"/>
       <c r="C175" s="8"/>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A176" s="6"/>
       <c r="B176" s="6"/>
       <c r="C176" s="8"/>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A177" s="6"/>
       <c r="B177" s="6"/>
       <c r="C177" s="8"/>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A178" s="6"/>
       <c r="B178" s="6"/>
       <c r="C178" s="8"/>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A179" s="6"/>
       <c r="B179" s="6"/>
       <c r="C179" s="8"/>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A180" s="6"/>
       <c r="B180" s="6"/>
       <c r="C180" s="8"/>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A181" s="6"/>
       <c r="B181" s="6"/>
       <c r="C181" s="8"/>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A182" s="6"/>
       <c r="B182" s="6"/>
       <c r="C182" s="8"/>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A183" s="6"/>
       <c r="B183" s="6"/>
       <c r="C183" s="8"/>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A184" s="6"/>
       <c r="B184" s="6"/>
       <c r="C184" s="8"/>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A185" s="6"/>
       <c r="B185" s="6"/>
       <c r="C185" s="8"/>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A186" s="6"/>
       <c r="B186" s="6"/>
       <c r="C186" s="8"/>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A187" s="6"/>
       <c r="B187" s="6"/>
       <c r="C187" s="8"/>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A188" s="6"/>
       <c r="B188" s="6"/>
       <c r="C188" s="8"/>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A189" s="6"/>
       <c r="B189" s="6"/>
       <c r="C189" s="8"/>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A190" s="6"/>
       <c r="B190" s="6"/>
       <c r="C190" s="8"/>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A191" s="6"/>
       <c r="B191" s="6"/>
       <c r="C191" s="8"/>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A192" s="6"/>
       <c r="B192" s="6"/>
       <c r="C192" s="8"/>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A193" s="6"/>
       <c r="B193" s="6"/>
       <c r="C193" s="8"/>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A194" s="6"/>
       <c r="B194" s="6"/>
       <c r="C194" s="8"/>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A195" s="6"/>
       <c r="B195" s="6"/>
       <c r="C195" s="8"/>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A196" s="6"/>
       <c r="B196" s="6"/>
       <c r="C196" s="8"/>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A197" s="6"/>
       <c r="B197" s="6"/>
       <c r="C197" s="8"/>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A198" s="6"/>
       <c r="B198" s="6"/>
       <c r="C198" s="8"/>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A199" s="6"/>
       <c r="B199" s="6"/>
       <c r="C199" s="8"/>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A200" s="6"/>
       <c r="B200" s="6"/>
       <c r="C200" s="8"/>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A201" s="6"/>
       <c r="B201" s="6"/>
       <c r="C201" s="8"/>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A202" s="6"/>
       <c r="B202" s="6"/>
       <c r="C202" s="8"/>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A203" s="6"/>
       <c r="B203" s="6"/>
       <c r="C203" s="8"/>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A204" s="6"/>
       <c r="B204" s="6"/>
       <c r="C204" s="8"/>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A205" s="6"/>
       <c r="B205" s="6"/>
       <c r="C205" s="8"/>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A206" s="6"/>
       <c r="B206" s="6"/>
       <c r="C206" s="8"/>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A207" s="6"/>
       <c r="B207" s="6"/>
       <c r="C207" s="8"/>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A208" s="6"/>
       <c r="B208" s="6"/>
       <c r="C208" s="8"/>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A209" s="6"/>
       <c r="B209" s="6"/>
       <c r="C209" s="8"/>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A210" s="6"/>
       <c r="B210" s="6"/>
       <c r="C210" s="8"/>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A211" s="6"/>
       <c r="B211" s="6"/>
       <c r="C211" s="8"/>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A212" s="6"/>
       <c r="B212" s="6"/>
       <c r="C212" s="8"/>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A213" s="6"/>
       <c r="B213" s="6"/>
       <c r="C213" s="8"/>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A214" s="6"/>
       <c r="B214" s="6"/>
       <c r="C214" s="8"/>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A215" s="6"/>
       <c r="B215" s="6"/>
       <c r="C215" s="8"/>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A216" s="6"/>
       <c r="B216" s="6"/>
       <c r="C216" s="8"/>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A217" s="6"/>
       <c r="B217" s="6"/>
       <c r="C217" s="8"/>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A218" s="6"/>
       <c r="B218" s="6"/>
       <c r="C218" s="8"/>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A219" s="6"/>
       <c r="B219" s="6"/>
       <c r="C219" s="8"/>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A220" s="6"/>
       <c r="B220" s="6"/>
       <c r="C220" s="8"/>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A221" s="6"/>
       <c r="B221" s="6"/>
       <c r="C221" s="8"/>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A222" s="6"/>
       <c r="B222" s="6"/>
       <c r="C222" s="8"/>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A223" s="6"/>
       <c r="B223" s="6"/>
       <c r="C223" s="8"/>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A224" s="6"/>
       <c r="B224" s="6"/>
       <c r="C224" s="8"/>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A225" s="6"/>
       <c r="B225" s="6"/>
       <c r="C225" s="8"/>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A226" s="6"/>
       <c r="B226" s="6"/>
       <c r="C226" s="8"/>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A227" s="6"/>
       <c r="B227" s="6"/>
       <c r="C227" s="8"/>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A228" s="6"/>
       <c r="B228" s="6"/>
       <c r="C228" s="8"/>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A229" s="6"/>
       <c r="B229" s="6"/>
       <c r="C229" s="8"/>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A230" s="6"/>
       <c r="B230" s="6"/>
       <c r="C230" s="8"/>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A231" s="6"/>
       <c r="B231" s="6"/>
       <c r="C231" s="8"/>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A232" s="6"/>
       <c r="B232" s="6"/>
       <c r="C232" s="8"/>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A233" s="6"/>
       <c r="B233" s="6"/>
       <c r="C233" s="8"/>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A234" s="6"/>
       <c r="B234" s="6"/>
       <c r="C234" s="8"/>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A235" s="6"/>
       <c r="B235" s="6"/>
       <c r="C235" s="8"/>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A236" s="6"/>
       <c r="B236" s="6"/>
       <c r="C236" s="8"/>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A237" s="6"/>
       <c r="B237" s="6"/>
       <c r="C237" s="8"/>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A238" s="6"/>
       <c r="B238" s="6"/>
       <c r="C238" s="8"/>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A239" s="6"/>
       <c r="B239" s="6"/>
       <c r="C239" s="8"/>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A240" s="6"/>
       <c r="B240" s="6"/>
       <c r="C240" s="8"/>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A241" s="6"/>
       <c r="B241" s="6"/>
       <c r="C241" s="8"/>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A242" s="6"/>
       <c r="B242" s="6"/>
       <c r="C242" s="8"/>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A243" s="6"/>
       <c r="B243" s="6"/>
       <c r="C243" s="8"/>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A244" s="6"/>
       <c r="B244" s="6"/>
       <c r="C244" s="8"/>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A245" s="6"/>
       <c r="B245" s="6"/>
       <c r="C245" s="8"/>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A246" s="6"/>
       <c r="B246" s="6"/>
       <c r="C246" s="8"/>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A247" s="6"/>
       <c r="B247" s="6"/>
       <c r="C247" s="8"/>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A248" s="6"/>
       <c r="B248" s="6"/>
       <c r="C248" s="8"/>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A249" s="6"/>
       <c r="B249" s="6"/>
       <c r="C249" s="8"/>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A250" s="6"/>
       <c r="B250" s="6"/>
       <c r="C250" s="8"/>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A251" s="6"/>
       <c r="B251" s="6"/>
       <c r="C251" s="8"/>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A252" s="6"/>
       <c r="B252" s="6"/>
       <c r="C252" s="8"/>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A253" s="6"/>
       <c r="B253" s="6"/>
       <c r="C253" s="8"/>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A254" s="6"/>
       <c r="B254" s="6"/>
       <c r="C254" s="8"/>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A255" s="6"/>
       <c r="B255" s="6"/>
       <c r="C255" s="8"/>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A256" s="6"/>
       <c r="B256" s="6"/>
       <c r="C256" s="8"/>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A257" s="6"/>
       <c r="B257" s="6"/>
       <c r="C257" s="8"/>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A258" s="6"/>
       <c r="B258" s="6"/>
       <c r="C258" s="8"/>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A259" s="6"/>
       <c r="B259" s="6"/>
       <c r="C259" s="8"/>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A260" s="6"/>
       <c r="B260" s="6"/>
       <c r="C260" s="8"/>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A261" s="6"/>
       <c r="B261" s="6"/>
       <c r="C261" s="8"/>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A262" s="6"/>
       <c r="B262" s="6"/>
       <c r="C262" s="8"/>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A263" s="6"/>
       <c r="B263" s="6"/>
       <c r="C263" s="8"/>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A264" s="6"/>
       <c r="B264" s="6"/>
       <c r="C264" s="8"/>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A265" s="6"/>
       <c r="B265" s="6"/>
       <c r="C265" s="8"/>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A266" s="6"/>
       <c r="B266" s="6"/>
       <c r="C266" s="8"/>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A267" s="6"/>
       <c r="B267" s="6"/>
       <c r="C267" s="8"/>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A268" s="6"/>
       <c r="B268" s="6"/>
       <c r="C268" s="8"/>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A269" s="6"/>
       <c r="B269" s="6"/>
       <c r="C269" s="8"/>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A270" s="6"/>
       <c r="B270" s="6"/>
       <c r="C270" s="8"/>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A271" s="6"/>
       <c r="B271" s="6"/>
       <c r="C271" s="8"/>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A272" s="6"/>
       <c r="B272" s="6"/>
       <c r="C272" s="8"/>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A273" s="6"/>
       <c r="B273" s="6"/>
       <c r="C273" s="8"/>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A274" s="6"/>
       <c r="B274" s="6"/>
       <c r="C274" s="8"/>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A275" s="6"/>
       <c r="B275" s="6"/>
       <c r="C275" s="8"/>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A276" s="6"/>
       <c r="B276" s="6"/>
       <c r="C276" s="8"/>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A277" s="6"/>
       <c r="B277" s="6"/>
       <c r="C277" s="8"/>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A278" s="6"/>
       <c r="B278" s="6"/>
       <c r="C278" s="8"/>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A279" s="6"/>
       <c r="B279" s="6"/>
       <c r="C279" s="8"/>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A280" s="6"/>
       <c r="B280" s="6"/>
       <c r="C280" s="8"/>
@@ -2476,14 +2485,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="11.42578125" style="5"/>
-    <col min="3" max="3" width="15.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11.42578125" style="1"/>
+    <col min="1" max="2" width="11.453125" style="5"/>
+    <col min="3" max="3" width="15.7265625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.453125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2500,7 +2509,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -2517,7 +2526,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -2534,1422 +2543,1422 @@
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="8"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="8"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="8"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="8"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
       <c r="C8" s="8"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
       <c r="C9" s="8"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="8"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="8"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="8"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="8"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="8"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="8"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="6"/>
       <c r="B16" s="6"/>
       <c r="C16" s="8"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="8"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="8"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="8"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
       <c r="C20" s="8"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="8"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
       <c r="C22" s="8"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
       <c r="C23" s="8"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="8"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
       <c r="C25" s="8"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="6"/>
       <c r="B26" s="6"/>
       <c r="C26" s="8"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
       <c r="C27" s="8"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="6"/>
       <c r="B28" s="6"/>
       <c r="C28" s="8"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="6"/>
       <c r="B29" s="6"/>
       <c r="C29" s="8"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
       <c r="C30" s="8"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="6"/>
       <c r="B31" s="6"/>
       <c r="C31" s="8"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="6"/>
       <c r="B32" s="6"/>
       <c r="C32" s="8"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="6"/>
       <c r="B33" s="6"/>
       <c r="C33" s="8"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="6"/>
       <c r="B34" s="6"/>
       <c r="C34" s="8"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
       <c r="C35" s="8"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="6"/>
       <c r="B36" s="6"/>
       <c r="C36" s="8"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" s="6"/>
       <c r="B37" s="6"/>
       <c r="C37" s="8"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
       <c r="C38" s="8"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" s="6"/>
       <c r="B39" s="6"/>
       <c r="C39" s="8"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" s="6"/>
       <c r="B40" s="6"/>
       <c r="C40" s="8"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" s="6"/>
       <c r="B41" s="6"/>
       <c r="C41" s="8"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" s="6"/>
       <c r="B42" s="6"/>
       <c r="C42" s="8"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" s="6"/>
       <c r="B43" s="6"/>
       <c r="C43" s="8"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" s="6"/>
       <c r="B44" s="6"/>
       <c r="C44" s="8"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" s="6"/>
       <c r="B45" s="6"/>
       <c r="C45" s="8"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" s="6"/>
       <c r="B46" s="6"/>
       <c r="C46" s="8"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" s="6"/>
       <c r="B47" s="6"/>
       <c r="C47" s="8"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
       <c r="C48" s="8"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
       <c r="C49" s="8"/>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" s="6"/>
       <c r="B50" s="6"/>
       <c r="C50" s="8"/>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
       <c r="C51" s="8"/>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
       <c r="C52" s="8"/>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
       <c r="C53" s="8"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" s="6"/>
       <c r="B54" s="6"/>
       <c r="C54" s="8"/>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" s="6"/>
       <c r="B55" s="6"/>
       <c r="C55" s="8"/>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
       <c r="C56" s="8"/>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
       <c r="C57" s="8"/>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
       <c r="C58" s="8"/>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" s="6"/>
       <c r="B59" s="6"/>
       <c r="C59" s="8"/>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" s="6"/>
       <c r="B60" s="6"/>
       <c r="C60" s="8"/>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" s="6"/>
       <c r="B61" s="6"/>
       <c r="C61" s="8"/>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" s="6"/>
       <c r="B62" s="6"/>
       <c r="C62" s="8"/>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" s="6"/>
       <c r="B63" s="6"/>
       <c r="C63" s="8"/>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" s="6"/>
       <c r="B64" s="6"/>
       <c r="C64" s="8"/>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" s="6"/>
       <c r="B65" s="6"/>
       <c r="C65" s="8"/>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" s="6"/>
       <c r="B66" s="6"/>
       <c r="C66" s="8"/>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" s="6"/>
       <c r="B67" s="6"/>
       <c r="C67" s="8"/>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" s="6"/>
       <c r="B68" s="6"/>
       <c r="C68" s="8"/>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" s="6"/>
       <c r="B69" s="6"/>
       <c r="C69" s="8"/>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" s="6"/>
       <c r="B70" s="6"/>
       <c r="C70" s="8"/>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" s="6"/>
       <c r="B71" s="6"/>
       <c r="C71" s="8"/>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" s="6"/>
       <c r="B72" s="6"/>
       <c r="C72" s="8"/>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" s="6"/>
       <c r="B73" s="6"/>
       <c r="C73" s="8"/>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" s="6"/>
       <c r="B74" s="6"/>
       <c r="C74" s="8"/>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" s="6"/>
       <c r="B75" s="6"/>
       <c r="C75" s="8"/>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" s="6"/>
       <c r="B76" s="6"/>
       <c r="C76" s="8"/>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77" s="6"/>
       <c r="B77" s="6"/>
       <c r="C77" s="8"/>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A78" s="6"/>
       <c r="B78" s="6"/>
       <c r="C78" s="8"/>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79" s="6"/>
       <c r="B79" s="6"/>
       <c r="C79" s="8"/>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A80" s="6"/>
       <c r="B80" s="6"/>
       <c r="C80" s="8"/>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" s="6"/>
       <c r="B81" s="6"/>
       <c r="C81" s="8"/>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" s="6"/>
       <c r="B82" s="6"/>
       <c r="C82" s="8"/>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" s="6"/>
       <c r="B83" s="6"/>
       <c r="C83" s="8"/>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" s="6"/>
       <c r="B84" s="6"/>
       <c r="C84" s="8"/>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85" s="6"/>
       <c r="B85" s="6"/>
       <c r="C85" s="8"/>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A86" s="6"/>
       <c r="B86" s="6"/>
       <c r="C86" s="8"/>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A87" s="6"/>
       <c r="B87" s="6"/>
       <c r="C87" s="8"/>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A88" s="6"/>
       <c r="B88" s="6"/>
       <c r="C88" s="8"/>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A89" s="6"/>
       <c r="B89" s="6"/>
       <c r="C89" s="8"/>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A90" s="6"/>
       <c r="B90" s="6"/>
       <c r="C90" s="8"/>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A91" s="6"/>
       <c r="B91" s="6"/>
       <c r="C91" s="8"/>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A92" s="6"/>
       <c r="B92" s="6"/>
       <c r="C92" s="8"/>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A93" s="6"/>
       <c r="B93" s="6"/>
       <c r="C93" s="8"/>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A94" s="6"/>
       <c r="B94" s="6"/>
       <c r="C94" s="8"/>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A95" s="6"/>
       <c r="B95" s="6"/>
       <c r="C95" s="8"/>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A96" s="6"/>
       <c r="B96" s="6"/>
       <c r="C96" s="8"/>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A97" s="6"/>
       <c r="B97" s="6"/>
       <c r="C97" s="8"/>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A98" s="6"/>
       <c r="B98" s="6"/>
       <c r="C98" s="8"/>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A99" s="6"/>
       <c r="B99" s="6"/>
       <c r="C99" s="8"/>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A100" s="6"/>
       <c r="B100" s="6"/>
       <c r="C100" s="8"/>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A101" s="6"/>
       <c r="B101" s="6"/>
       <c r="C101" s="8"/>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A102" s="6"/>
       <c r="B102" s="6"/>
       <c r="C102" s="8"/>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A103" s="6"/>
       <c r="B103" s="6"/>
       <c r="C103" s="8"/>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A104" s="6"/>
       <c r="B104" s="6"/>
       <c r="C104" s="8"/>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A105" s="6"/>
       <c r="B105" s="6"/>
       <c r="C105" s="8"/>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A106" s="6"/>
       <c r="B106" s="6"/>
       <c r="C106" s="8"/>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A107" s="6"/>
       <c r="B107" s="6"/>
       <c r="C107" s="8"/>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A108" s="6"/>
       <c r="B108" s="6"/>
       <c r="C108" s="8"/>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A109" s="6"/>
       <c r="B109" s="6"/>
       <c r="C109" s="8"/>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A110" s="6"/>
       <c r="B110" s="6"/>
       <c r="C110" s="8"/>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A111" s="6"/>
       <c r="B111" s="6"/>
       <c r="C111" s="8"/>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A112" s="6"/>
       <c r="B112" s="6"/>
       <c r="C112" s="8"/>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A113" s="6"/>
       <c r="B113" s="6"/>
       <c r="C113" s="8"/>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A114" s="6"/>
       <c r="B114" s="6"/>
       <c r="C114" s="8"/>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A115" s="6"/>
       <c r="B115" s="6"/>
       <c r="C115" s="8"/>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A116" s="6"/>
       <c r="B116" s="6"/>
       <c r="C116" s="8"/>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A117" s="6"/>
       <c r="B117" s="6"/>
       <c r="C117" s="8"/>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A118" s="6"/>
       <c r="B118" s="6"/>
       <c r="C118" s="8"/>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A119" s="6"/>
       <c r="B119" s="6"/>
       <c r="C119" s="8"/>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A120" s="6"/>
       <c r="B120" s="6"/>
       <c r="C120" s="8"/>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A121" s="6"/>
       <c r="B121" s="6"/>
       <c r="C121" s="8"/>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A122" s="6"/>
       <c r="B122" s="6"/>
       <c r="C122" s="8"/>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A123" s="6"/>
       <c r="B123" s="6"/>
       <c r="C123" s="8"/>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A124" s="6"/>
       <c r="B124" s="6"/>
       <c r="C124" s="8"/>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A125" s="6"/>
       <c r="B125" s="6"/>
       <c r="C125" s="8"/>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A126" s="6"/>
       <c r="B126" s="6"/>
       <c r="C126" s="8"/>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A127" s="6"/>
       <c r="B127" s="6"/>
       <c r="C127" s="8"/>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A128" s="6"/>
       <c r="B128" s="6"/>
       <c r="C128" s="8"/>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A129" s="6"/>
       <c r="B129" s="6"/>
       <c r="C129" s="8"/>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A130" s="6"/>
       <c r="B130" s="6"/>
       <c r="C130" s="8"/>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A131" s="6"/>
       <c r="B131" s="6"/>
       <c r="C131" s="8"/>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A132" s="6"/>
       <c r="B132" s="6"/>
       <c r="C132" s="8"/>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A133" s="6"/>
       <c r="B133" s="6"/>
       <c r="C133" s="8"/>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A134" s="6"/>
       <c r="B134" s="6"/>
       <c r="C134" s="8"/>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A135" s="6"/>
       <c r="B135" s="6"/>
       <c r="C135" s="8"/>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A136" s="6"/>
       <c r="B136" s="6"/>
       <c r="C136" s="8"/>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A137" s="6"/>
       <c r="B137" s="6"/>
       <c r="C137" s="8"/>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A138" s="6"/>
       <c r="B138" s="6"/>
       <c r="C138" s="8"/>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A139" s="6"/>
       <c r="B139" s="6"/>
       <c r="C139" s="8"/>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A140" s="6"/>
       <c r="B140" s="6"/>
       <c r="C140" s="8"/>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A141" s="6"/>
       <c r="B141" s="6"/>
       <c r="C141" s="8"/>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A142" s="6"/>
       <c r="B142" s="6"/>
       <c r="C142" s="8"/>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A143" s="6"/>
       <c r="B143" s="6"/>
       <c r="C143" s="8"/>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A144" s="6"/>
       <c r="B144" s="6"/>
       <c r="C144" s="8"/>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A145" s="6"/>
       <c r="B145" s="6"/>
       <c r="C145" s="8"/>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A146" s="6"/>
       <c r="B146" s="6"/>
       <c r="C146" s="8"/>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A147" s="6"/>
       <c r="B147" s="6"/>
       <c r="C147" s="8"/>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A148" s="6"/>
       <c r="B148" s="6"/>
       <c r="C148" s="8"/>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A149" s="6"/>
       <c r="B149" s="6"/>
       <c r="C149" s="8"/>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A150" s="6"/>
       <c r="B150" s="6"/>
       <c r="C150" s="8"/>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A151" s="6"/>
       <c r="B151" s="6"/>
       <c r="C151" s="8"/>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A152" s="6"/>
       <c r="B152" s="6"/>
       <c r="C152" s="8"/>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A153" s="6"/>
       <c r="B153" s="6"/>
       <c r="C153" s="8"/>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A154" s="6"/>
       <c r="B154" s="6"/>
       <c r="C154" s="8"/>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A155" s="6"/>
       <c r="B155" s="6"/>
       <c r="C155" s="8"/>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A156" s="6"/>
       <c r="B156" s="6"/>
       <c r="C156" s="8"/>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A157" s="6"/>
       <c r="B157" s="6"/>
       <c r="C157" s="8"/>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A158" s="6"/>
       <c r="B158" s="6"/>
       <c r="C158" s="8"/>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A159" s="6"/>
       <c r="B159" s="6"/>
       <c r="C159" s="8"/>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A160" s="6"/>
       <c r="B160" s="6"/>
       <c r="C160" s="8"/>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A161" s="6"/>
       <c r="B161" s="6"/>
       <c r="C161" s="8"/>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A162" s="6"/>
       <c r="B162" s="6"/>
       <c r="C162" s="8"/>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A163" s="6"/>
       <c r="B163" s="6"/>
       <c r="C163" s="8"/>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A164" s="6"/>
       <c r="B164" s="6"/>
       <c r="C164" s="8"/>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A165" s="6"/>
       <c r="B165" s="6"/>
       <c r="C165" s="8"/>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A166" s="6"/>
       <c r="B166" s="6"/>
       <c r="C166" s="8"/>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A167" s="6"/>
       <c r="B167" s="6"/>
       <c r="C167" s="8"/>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A168" s="6"/>
       <c r="B168" s="6"/>
       <c r="C168" s="8"/>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A169" s="6"/>
       <c r="B169" s="6"/>
       <c r="C169" s="8"/>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A170" s="6"/>
       <c r="B170" s="6"/>
       <c r="C170" s="8"/>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A171" s="6"/>
       <c r="B171" s="6"/>
       <c r="C171" s="8"/>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A172" s="6"/>
       <c r="B172" s="6"/>
       <c r="C172" s="8"/>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A173" s="6"/>
       <c r="B173" s="6"/>
       <c r="C173" s="8"/>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A174" s="6"/>
       <c r="B174" s="6"/>
       <c r="C174" s="8"/>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A175" s="6"/>
       <c r="B175" s="6"/>
       <c r="C175" s="8"/>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A176" s="6"/>
       <c r="B176" s="6"/>
       <c r="C176" s="8"/>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A177" s="6"/>
       <c r="B177" s="6"/>
       <c r="C177" s="8"/>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A178" s="6"/>
       <c r="B178" s="6"/>
       <c r="C178" s="8"/>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A179" s="6"/>
       <c r="B179" s="6"/>
       <c r="C179" s="8"/>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A180" s="6"/>
       <c r="B180" s="6"/>
       <c r="C180" s="8"/>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A181" s="6"/>
       <c r="B181" s="6"/>
       <c r="C181" s="8"/>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A182" s="6"/>
       <c r="B182" s="6"/>
       <c r="C182" s="8"/>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A183" s="6"/>
       <c r="B183" s="6"/>
       <c r="C183" s="8"/>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A184" s="6"/>
       <c r="B184" s="6"/>
       <c r="C184" s="8"/>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A185" s="6"/>
       <c r="B185" s="6"/>
       <c r="C185" s="8"/>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A186" s="6"/>
       <c r="B186" s="6"/>
       <c r="C186" s="8"/>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A187" s="6"/>
       <c r="B187" s="6"/>
       <c r="C187" s="8"/>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A188" s="6"/>
       <c r="B188" s="6"/>
       <c r="C188" s="8"/>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A189" s="6"/>
       <c r="B189" s="6"/>
       <c r="C189" s="8"/>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A190" s="6"/>
       <c r="B190" s="6"/>
       <c r="C190" s="8"/>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A191" s="6"/>
       <c r="B191" s="6"/>
       <c r="C191" s="8"/>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A192" s="6"/>
       <c r="B192" s="6"/>
       <c r="C192" s="8"/>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A193" s="6"/>
       <c r="B193" s="6"/>
       <c r="C193" s="8"/>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A194" s="6"/>
       <c r="B194" s="6"/>
       <c r="C194" s="8"/>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A195" s="6"/>
       <c r="B195" s="6"/>
       <c r="C195" s="8"/>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A196" s="6"/>
       <c r="B196" s="6"/>
       <c r="C196" s="8"/>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A197" s="6"/>
       <c r="B197" s="6"/>
       <c r="C197" s="8"/>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A198" s="6"/>
       <c r="B198" s="6"/>
       <c r="C198" s="8"/>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A199" s="6"/>
       <c r="B199" s="6"/>
       <c r="C199" s="8"/>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A200" s="6"/>
       <c r="B200" s="6"/>
       <c r="C200" s="8"/>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A201" s="6"/>
       <c r="B201" s="6"/>
       <c r="C201" s="8"/>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A202" s="6"/>
       <c r="B202" s="6"/>
       <c r="C202" s="8"/>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A203" s="6"/>
       <c r="B203" s="6"/>
       <c r="C203" s="8"/>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A204" s="6"/>
       <c r="B204" s="6"/>
       <c r="C204" s="8"/>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A205" s="6"/>
       <c r="B205" s="6"/>
       <c r="C205" s="8"/>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A206" s="6"/>
       <c r="B206" s="6"/>
       <c r="C206" s="8"/>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A207" s="6"/>
       <c r="B207" s="6"/>
       <c r="C207" s="8"/>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A208" s="6"/>
       <c r="B208" s="6"/>
       <c r="C208" s="8"/>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A209" s="6"/>
       <c r="B209" s="6"/>
       <c r="C209" s="8"/>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A210" s="6"/>
       <c r="B210" s="6"/>
       <c r="C210" s="8"/>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A211" s="6"/>
       <c r="B211" s="6"/>
       <c r="C211" s="8"/>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A212" s="6"/>
       <c r="B212" s="6"/>
       <c r="C212" s="8"/>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A213" s="6"/>
       <c r="B213" s="6"/>
       <c r="C213" s="8"/>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A214" s="6"/>
       <c r="B214" s="6"/>
       <c r="C214" s="8"/>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A215" s="6"/>
       <c r="B215" s="6"/>
       <c r="C215" s="8"/>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A216" s="6"/>
       <c r="B216" s="6"/>
       <c r="C216" s="8"/>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A217" s="6"/>
       <c r="B217" s="6"/>
       <c r="C217" s="8"/>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A218" s="6"/>
       <c r="B218" s="6"/>
       <c r="C218" s="8"/>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A219" s="6"/>
       <c r="B219" s="6"/>
       <c r="C219" s="8"/>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A220" s="6"/>
       <c r="B220" s="6"/>
       <c r="C220" s="8"/>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A221" s="6"/>
       <c r="B221" s="6"/>
       <c r="C221" s="8"/>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A222" s="6"/>
       <c r="B222" s="6"/>
       <c r="C222" s="8"/>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A223" s="6"/>
       <c r="B223" s="6"/>
       <c r="C223" s="8"/>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A224" s="6"/>
       <c r="B224" s="6"/>
       <c r="C224" s="8"/>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A225" s="6"/>
       <c r="B225" s="6"/>
       <c r="C225" s="8"/>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A226" s="6"/>
       <c r="B226" s="6"/>
       <c r="C226" s="8"/>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A227" s="6"/>
       <c r="B227" s="6"/>
       <c r="C227" s="8"/>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A228" s="6"/>
       <c r="B228" s="6"/>
       <c r="C228" s="8"/>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A229" s="6"/>
       <c r="B229" s="6"/>
       <c r="C229" s="8"/>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A230" s="6"/>
       <c r="B230" s="6"/>
       <c r="C230" s="8"/>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A231" s="6"/>
       <c r="B231" s="6"/>
       <c r="C231" s="8"/>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A232" s="6"/>
       <c r="B232" s="6"/>
       <c r="C232" s="8"/>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A233" s="6"/>
       <c r="B233" s="6"/>
       <c r="C233" s="8"/>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A234" s="6"/>
       <c r="B234" s="6"/>
       <c r="C234" s="8"/>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A235" s="6"/>
       <c r="B235" s="6"/>
       <c r="C235" s="8"/>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A236" s="6"/>
       <c r="B236" s="6"/>
       <c r="C236" s="8"/>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A237" s="6"/>
       <c r="B237" s="6"/>
       <c r="C237" s="8"/>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A238" s="6"/>
       <c r="B238" s="6"/>
       <c r="C238" s="8"/>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A239" s="6"/>
       <c r="B239" s="6"/>
       <c r="C239" s="8"/>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A240" s="6"/>
       <c r="B240" s="6"/>
       <c r="C240" s="8"/>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A241" s="6"/>
       <c r="B241" s="6"/>
       <c r="C241" s="8"/>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A242" s="6"/>
       <c r="B242" s="6"/>
       <c r="C242" s="8"/>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A243" s="6"/>
       <c r="B243" s="6"/>
       <c r="C243" s="8"/>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A244" s="6"/>
       <c r="B244" s="6"/>
       <c r="C244" s="8"/>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A245" s="6"/>
       <c r="B245" s="6"/>
       <c r="C245" s="8"/>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A246" s="6"/>
       <c r="B246" s="6"/>
       <c r="C246" s="8"/>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A247" s="6"/>
       <c r="B247" s="6"/>
       <c r="C247" s="8"/>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A248" s="6"/>
       <c r="B248" s="6"/>
       <c r="C248" s="8"/>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A249" s="6"/>
       <c r="B249" s="6"/>
       <c r="C249" s="8"/>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A250" s="6"/>
       <c r="B250" s="6"/>
       <c r="C250" s="8"/>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A251" s="6"/>
       <c r="B251" s="6"/>
       <c r="C251" s="8"/>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A252" s="6"/>
       <c r="B252" s="6"/>
       <c r="C252" s="8"/>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A253" s="6"/>
       <c r="B253" s="6"/>
       <c r="C253" s="8"/>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A254" s="6"/>
       <c r="B254" s="6"/>
       <c r="C254" s="8"/>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A255" s="6"/>
       <c r="B255" s="6"/>
       <c r="C255" s="8"/>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A256" s="6"/>
       <c r="B256" s="6"/>
       <c r="C256" s="8"/>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A257" s="6"/>
       <c r="B257" s="6"/>
       <c r="C257" s="8"/>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A258" s="6"/>
       <c r="B258" s="6"/>
       <c r="C258" s="8"/>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A259" s="6"/>
       <c r="B259" s="6"/>
       <c r="C259" s="8"/>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A260" s="6"/>
       <c r="B260" s="6"/>
       <c r="C260" s="8"/>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A261" s="6"/>
       <c r="B261" s="6"/>
       <c r="C261" s="8"/>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A262" s="6"/>
       <c r="B262" s="6"/>
       <c r="C262" s="8"/>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A263" s="6"/>
       <c r="B263" s="6"/>
       <c r="C263" s="8"/>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A264" s="6"/>
       <c r="B264" s="6"/>
       <c r="C264" s="8"/>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A265" s="6"/>
       <c r="B265" s="6"/>
       <c r="C265" s="8"/>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A266" s="6"/>
       <c r="B266" s="6"/>
       <c r="C266" s="8"/>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A267" s="6"/>
       <c r="B267" s="6"/>
       <c r="C267" s="8"/>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A268" s="6"/>
       <c r="B268" s="6"/>
       <c r="C268" s="8"/>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A269" s="6"/>
       <c r="B269" s="6"/>
       <c r="C269" s="8"/>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A270" s="6"/>
       <c r="B270" s="6"/>
       <c r="C270" s="8"/>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A271" s="6"/>
       <c r="B271" s="6"/>
       <c r="C271" s="8"/>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A272" s="6"/>
       <c r="B272" s="6"/>
       <c r="C272" s="8"/>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A273" s="6"/>
       <c r="B273" s="6"/>
       <c r="C273" s="8"/>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A274" s="6"/>
       <c r="B274" s="6"/>
       <c r="C274" s="8"/>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A275" s="6"/>
       <c r="B275" s="6"/>
       <c r="C275" s="8"/>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A276" s="6"/>
       <c r="B276" s="6"/>
       <c r="C276" s="8"/>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A277" s="6"/>
       <c r="B277" s="6"/>
       <c r="C277" s="8"/>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A278" s="6"/>
       <c r="B278" s="6"/>
       <c r="C278" s="8"/>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A279" s="6"/>
       <c r="B279" s="6"/>
       <c r="C279" s="8"/>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A280" s="6"/>
       <c r="B280" s="6"/>
       <c r="C280" s="8"/>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A281" s="6"/>
       <c r="B281" s="6"/>
       <c r="C281" s="8"/>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A282" s="6"/>
       <c r="B282" s="6"/>
       <c r="C282" s="8"/>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A283" s="6"/>
       <c r="B283" s="6"/>
       <c r="C283" s="8"/>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A284" s="6"/>
       <c r="B284" s="6"/>
       <c r="C284" s="8"/>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A285" s="6"/>
       <c r="B285" s="6"/>
       <c r="C285" s="8"/>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A286" s="6"/>
       <c r="B286" s="6"/>
       <c r="C286" s="8"/>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A287" s="6"/>
       <c r="B287" s="6"/>
       <c r="C287" s="8"/>
@@ -3966,14 +3975,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="5"/>
-    <col min="2" max="2" width="11.42578125" style="1"/>
-    <col min="3" max="3" width="106.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.453125" style="5"/>
+    <col min="2" max="2" width="11.453125" style="1"/>
+    <col min="3" max="3" width="106.7265625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -3984,7 +3993,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -3995,7 +4004,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -4006,1351 +4015,1351 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="6"/>
       <c r="C4" s="2"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="6"/>
       <c r="C5" s="2"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="6"/>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="6"/>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="6"/>
       <c r="C8" s="2"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="6"/>
       <c r="C9" s="2"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="6"/>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="6"/>
       <c r="C11" s="2"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="6"/>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="6"/>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="6"/>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="6"/>
       <c r="C15" s="2"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="6"/>
       <c r="C16" s="2"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="6"/>
       <c r="C17" s="2"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="6"/>
       <c r="C18" s="2"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="6"/>
       <c r="C19" s="2"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="6"/>
       <c r="C20" s="2"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="6"/>
       <c r="C21" s="2"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="6"/>
       <c r="C22" s="2"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="6"/>
       <c r="C23" s="2"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="6"/>
       <c r="C24" s="2"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="6"/>
       <c r="C25" s="2"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="6"/>
       <c r="C26" s="2"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="6"/>
       <c r="C27" s="2"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="6"/>
       <c r="C28" s="2"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="6"/>
       <c r="C29" s="2"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="6"/>
       <c r="C30" s="2"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="6"/>
       <c r="C31" s="2"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="6"/>
       <c r="C32" s="2"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="6"/>
       <c r="C33" s="2"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="6"/>
       <c r="C34" s="2"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="6"/>
       <c r="C35" s="2"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="6"/>
       <c r="C36" s="2"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" s="6"/>
       <c r="C37" s="2"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" s="6"/>
       <c r="C38" s="2"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" s="6"/>
       <c r="C39" s="2"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" s="6"/>
       <c r="C40" s="2"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" s="6"/>
       <c r="C41" s="2"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" s="6"/>
       <c r="C42" s="2"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" s="6"/>
       <c r="C43" s="2"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" s="6"/>
       <c r="C44" s="2"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" s="6"/>
       <c r="C45" s="2"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" s="6"/>
       <c r="C46" s="2"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" s="6"/>
       <c r="C47" s="2"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" s="6"/>
       <c r="C48" s="2"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" s="6"/>
       <c r="C49" s="2"/>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" s="6"/>
       <c r="C50" s="2"/>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" s="6"/>
       <c r="C51" s="2"/>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" s="6"/>
       <c r="C52" s="2"/>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" s="6"/>
       <c r="C53" s="2"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" s="6"/>
       <c r="C54" s="2"/>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" s="6"/>
       <c r="C55" s="2"/>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" s="6"/>
       <c r="C56" s="2"/>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" s="6"/>
       <c r="C57" s="2"/>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" s="6"/>
       <c r="C58" s="2"/>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" s="6"/>
       <c r="C59" s="2"/>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" s="6"/>
       <c r="C60" s="2"/>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" s="6"/>
       <c r="C61" s="2"/>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" s="6"/>
       <c r="C62" s="2"/>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" s="6"/>
       <c r="C63" s="2"/>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" s="6"/>
       <c r="C64" s="2"/>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" s="6"/>
       <c r="C65" s="2"/>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" s="6"/>
       <c r="C66" s="2"/>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" s="6"/>
       <c r="C67" s="2"/>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" s="6"/>
       <c r="C68" s="2"/>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" s="6"/>
       <c r="C69" s="2"/>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" s="6"/>
       <c r="C70" s="2"/>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" s="6"/>
       <c r="C71" s="2"/>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" s="6"/>
       <c r="C72" s="2"/>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" s="6"/>
       <c r="C73" s="2"/>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" s="6"/>
       <c r="C74" s="2"/>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" s="6"/>
       <c r="C75" s="2"/>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" s="6"/>
       <c r="C76" s="2"/>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77" s="6"/>
       <c r="C77" s="2"/>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A78" s="6"/>
       <c r="C78" s="2"/>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79" s="6"/>
       <c r="C79" s="2"/>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A80" s="6"/>
       <c r="C80" s="2"/>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" s="6"/>
       <c r="C81" s="2"/>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" s="6"/>
       <c r="C82" s="2"/>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" s="6"/>
       <c r="C83" s="2"/>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" s="6"/>
       <c r="C84" s="2"/>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85" s="6"/>
       <c r="C85" s="2"/>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A86" s="6"/>
       <c r="C86" s="2"/>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A87" s="6"/>
       <c r="C87" s="2"/>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A88" s="6"/>
       <c r="C88" s="2"/>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A89" s="6"/>
       <c r="C89" s="2"/>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A90" s="6"/>
       <c r="C90" s="2"/>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A91" s="6"/>
       <c r="C91" s="2"/>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A92" s="6"/>
       <c r="C92" s="2"/>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A93" s="6"/>
       <c r="C93" s="2"/>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A94" s="6"/>
       <c r="C94" s="2"/>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A95" s="6"/>
       <c r="C95" s="2"/>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A96" s="6"/>
       <c r="C96" s="2"/>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A97" s="6"/>
       <c r="C97" s="2"/>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A98" s="6"/>
       <c r="C98" s="2"/>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A99" s="6"/>
       <c r="C99" s="2"/>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A100" s="6"/>
       <c r="C100" s="2"/>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A101" s="6"/>
       <c r="C101" s="2"/>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A102" s="6"/>
       <c r="C102" s="2"/>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A103" s="6"/>
       <c r="C103" s="2"/>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A104" s="6"/>
       <c r="C104" s="2"/>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A105" s="6"/>
       <c r="C105" s="2"/>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A106" s="6"/>
       <c r="C106" s="2"/>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A107" s="6"/>
       <c r="C107" s="2"/>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A108" s="6"/>
       <c r="C108" s="2"/>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A109" s="6"/>
       <c r="C109" s="2"/>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A110" s="6"/>
       <c r="C110" s="2"/>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A111" s="6"/>
       <c r="C111" s="2"/>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A112" s="6"/>
       <c r="C112" s="2"/>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A113" s="6"/>
       <c r="C113" s="2"/>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A114" s="6"/>
       <c r="C114" s="2"/>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A115" s="6"/>
       <c r="C115" s="2"/>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A116" s="6"/>
       <c r="C116" s="2"/>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A117" s="6"/>
       <c r="C117" s="2"/>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A118" s="6"/>
       <c r="C118" s="2"/>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A119" s="6"/>
       <c r="C119" s="2"/>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A120" s="6"/>
       <c r="C120" s="2"/>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A121" s="6"/>
       <c r="C121" s="2"/>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A122" s="6"/>
       <c r="C122" s="2"/>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A123" s="6"/>
       <c r="C123" s="2"/>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A124" s="6"/>
       <c r="C124" s="2"/>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A125" s="6"/>
       <c r="C125" s="2"/>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A126" s="6"/>
       <c r="C126" s="2"/>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A127" s="6"/>
       <c r="C127" s="2"/>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A128" s="6"/>
       <c r="C128" s="2"/>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A129" s="6"/>
       <c r="C129" s="2"/>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A130" s="6"/>
       <c r="C130" s="2"/>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A131" s="6"/>
       <c r="C131" s="2"/>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A132" s="6"/>
       <c r="C132" s="2"/>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A133" s="6"/>
       <c r="C133" s="2"/>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A134" s="6"/>
       <c r="C134" s="2"/>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A135" s="6"/>
       <c r="C135" s="2"/>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A136" s="6"/>
       <c r="C136" s="2"/>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A137" s="6"/>
       <c r="C137" s="2"/>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A138" s="6"/>
       <c r="C138" s="2"/>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A139" s="6"/>
       <c r="C139" s="2"/>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A140" s="6"/>
       <c r="C140" s="2"/>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A141" s="6"/>
       <c r="C141" s="2"/>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A142" s="6"/>
       <c r="C142" s="2"/>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A143" s="6"/>
       <c r="C143" s="2"/>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A144" s="6"/>
       <c r="C144" s="2"/>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A145" s="6"/>
       <c r="C145" s="2"/>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A146" s="6"/>
       <c r="C146" s="2"/>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A147" s="6"/>
       <c r="C147" s="2"/>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A148" s="6"/>
       <c r="C148" s="2"/>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A149" s="6"/>
       <c r="C149" s="2"/>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A150" s="6"/>
       <c r="C150" s="2"/>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A151" s="6"/>
       <c r="C151" s="2"/>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A152" s="6"/>
       <c r="C152" s="2"/>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A153" s="6"/>
       <c r="C153" s="2"/>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A154" s="6"/>
       <c r="C154" s="2"/>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A155" s="6"/>
       <c r="C155" s="2"/>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A156" s="6"/>
       <c r="C156" s="2"/>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A157" s="6"/>
       <c r="C157" s="2"/>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A158" s="6"/>
       <c r="C158" s="2"/>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A159" s="6"/>
       <c r="C159" s="2"/>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A160" s="6"/>
       <c r="C160" s="2"/>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A161" s="6"/>
       <c r="C161" s="2"/>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A162" s="6"/>
       <c r="C162" s="2"/>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A163" s="6"/>
       <c r="C163" s="2"/>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A164" s="6"/>
       <c r="C164" s="2"/>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A165" s="6"/>
       <c r="C165" s="2"/>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A166" s="6"/>
       <c r="C166" s="2"/>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A167" s="6"/>
       <c r="C167" s="2"/>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A168" s="6"/>
       <c r="C168" s="2"/>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A169" s="6"/>
       <c r="C169" s="2"/>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A170" s="6"/>
       <c r="C170" s="2"/>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A171" s="6"/>
       <c r="C171" s="2"/>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A172" s="6"/>
       <c r="C172" s="2"/>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A173" s="6"/>
       <c r="C173" s="2"/>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A174" s="6"/>
       <c r="C174" s="2"/>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A175" s="6"/>
       <c r="C175" s="2"/>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A176" s="6"/>
       <c r="C176" s="2"/>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A177" s="6"/>
       <c r="C177" s="2"/>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A178" s="6"/>
       <c r="C178" s="2"/>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A179" s="6"/>
       <c r="C179" s="2"/>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A180" s="6"/>
       <c r="C180" s="2"/>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A181" s="6"/>
       <c r="C181" s="2"/>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A182" s="6"/>
       <c r="C182" s="2"/>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A183" s="6"/>
       <c r="C183" s="2"/>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A184" s="6"/>
       <c r="C184" s="2"/>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A185" s="6"/>
       <c r="C185" s="2"/>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A186" s="6"/>
       <c r="C186" s="2"/>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A187" s="6"/>
       <c r="C187" s="2"/>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A188" s="6"/>
       <c r="C188" s="2"/>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A189" s="6"/>
       <c r="C189" s="2"/>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A190" s="6"/>
       <c r="C190" s="2"/>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A191" s="6"/>
       <c r="C191" s="2"/>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A192" s="6"/>
       <c r="C192" s="2"/>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A193" s="6"/>
       <c r="C193" s="2"/>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A194" s="6"/>
       <c r="C194" s="2"/>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A195" s="6"/>
       <c r="C195" s="2"/>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A196" s="6"/>
       <c r="C196" s="2"/>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A197" s="6"/>
       <c r="C197" s="2"/>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A198" s="6"/>
       <c r="C198" s="2"/>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A199" s="6"/>
       <c r="C199" s="2"/>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A200" s="6"/>
       <c r="C200" s="2"/>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A201" s="6"/>
       <c r="C201" s="2"/>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A202" s="6"/>
       <c r="C202" s="2"/>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A203" s="6"/>
       <c r="C203" s="2"/>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A204" s="6"/>
       <c r="C204" s="2"/>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A205" s="6"/>
       <c r="C205" s="2"/>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A206" s="6"/>
       <c r="C206" s="2"/>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A207" s="6"/>
       <c r="C207" s="2"/>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A208" s="6"/>
       <c r="C208" s="2"/>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A209" s="6"/>
       <c r="C209" s="2"/>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A210" s="6"/>
       <c r="C210" s="2"/>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A211" s="6"/>
       <c r="C211" s="2"/>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A212" s="6"/>
       <c r="C212" s="2"/>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A213" s="6"/>
       <c r="C213" s="2"/>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A214" s="6"/>
       <c r="C214" s="2"/>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A215" s="6"/>
       <c r="C215" s="2"/>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A216" s="6"/>
       <c r="C216" s="2"/>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A217" s="6"/>
       <c r="C217" s="2"/>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A218" s="6"/>
       <c r="C218" s="2"/>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A219" s="6"/>
       <c r="C219" s="2"/>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A220" s="6"/>
       <c r="C220" s="2"/>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A221" s="6"/>
       <c r="C221" s="2"/>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A222" s="6"/>
       <c r="C222" s="2"/>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A223" s="6"/>
       <c r="C223" s="2"/>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A224" s="6"/>
       <c r="C224" s="2"/>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A225" s="6"/>
       <c r="C225" s="2"/>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A226" s="6"/>
       <c r="C226" s="2"/>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A227" s="6"/>
       <c r="C227" s="2"/>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A228" s="6"/>
       <c r="C228" s="2"/>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A229" s="6"/>
       <c r="C229" s="2"/>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A230" s="6"/>
       <c r="C230" s="2"/>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A231" s="6"/>
       <c r="C231" s="2"/>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A232" s="6"/>
       <c r="C232" s="2"/>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A233" s="6"/>
       <c r="C233" s="2"/>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A234" s="6"/>
       <c r="C234" s="2"/>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A235" s="6"/>
       <c r="C235" s="2"/>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A236" s="6"/>
       <c r="C236" s="2"/>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A237" s="6"/>
       <c r="C237" s="2"/>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A238" s="6"/>
       <c r="C238" s="2"/>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A239" s="6"/>
       <c r="C239" s="2"/>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A240" s="6"/>
       <c r="C240" s="2"/>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A241" s="6"/>
       <c r="C241" s="2"/>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A242" s="6"/>
       <c r="C242" s="2"/>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A243" s="6"/>
       <c r="C243" s="2"/>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A244" s="6"/>
       <c r="C244" s="2"/>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A245" s="6"/>
       <c r="C245" s="2"/>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A246" s="6"/>
       <c r="C246" s="2"/>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A247" s="6"/>
       <c r="C247" s="2"/>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A248" s="6"/>
       <c r="C248" s="2"/>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A249" s="6"/>
       <c r="C249" s="2"/>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A250" s="6"/>
       <c r="C250" s="2"/>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A251" s="6"/>
       <c r="C251" s="2"/>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A252" s="6"/>
       <c r="C252" s="2"/>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A253" s="6"/>
       <c r="C253" s="2"/>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A254" s="6"/>
       <c r="C254" s="2"/>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A255" s="6"/>
       <c r="C255" s="2"/>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A256" s="6"/>
       <c r="C256" s="2"/>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A257" s="6"/>
       <c r="C257" s="2"/>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A258" s="6"/>
       <c r="C258" s="2"/>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A259" s="6"/>
       <c r="C259" s="2"/>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A260" s="6"/>
       <c r="C260" s="2"/>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A261" s="6"/>
       <c r="C261" s="2"/>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A262" s="6"/>
       <c r="C262" s="2"/>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A263" s="6"/>
       <c r="C263" s="2"/>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A264" s="6"/>
       <c r="C264" s="2"/>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A265" s="6"/>
       <c r="C265" s="2"/>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A266" s="6"/>
       <c r="C266" s="2"/>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A267" s="6"/>
       <c r="C267" s="2"/>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A268" s="6"/>
       <c r="C268" s="2"/>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A269" s="6"/>
       <c r="C269" s="2"/>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A270" s="6"/>
       <c r="C270" s="2"/>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A271" s="6"/>
       <c r="C271" s="2"/>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A272" s="6"/>
       <c r="C272" s="2"/>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A273" s="6"/>
       <c r="C273" s="2"/>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A274" s="6"/>
       <c r="C274" s="2"/>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A275" s="6"/>
       <c r="C275" s="2"/>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A276" s="6"/>
       <c r="C276" s="2"/>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A277" s="6"/>
       <c r="C277" s="2"/>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A278" s="6"/>
       <c r="C278" s="2"/>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A279" s="6"/>
       <c r="C279" s="2"/>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A280" s="6"/>
       <c r="C280" s="2"/>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A281" s="6"/>
       <c r="C281" s="2"/>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A282" s="6"/>
       <c r="C282" s="2"/>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A283" s="6"/>
       <c r="C283" s="2"/>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A284" s="6"/>
       <c r="C284" s="2"/>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A285" s="6"/>
       <c r="C285" s="2"/>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A286" s="6"/>
       <c r="C286" s="2"/>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A287" s="6"/>
       <c r="C287" s="2"/>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A288" s="6"/>
       <c r="C288" s="2"/>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A289" s="6"/>
       <c r="C289" s="2"/>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A290" s="6"/>
       <c r="C290" s="2"/>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A291" s="6"/>
       <c r="C291" s="2"/>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A292" s="6"/>
       <c r="C292" s="2"/>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A293" s="6"/>
       <c r="C293" s="2"/>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A294" s="6"/>
       <c r="C294" s="2"/>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A295" s="6"/>
       <c r="C295" s="2"/>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A296" s="6"/>
       <c r="C296" s="2"/>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A297" s="6"/>
       <c r="C297" s="2"/>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A298" s="6"/>
       <c r="C298" s="2"/>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A299" s="6"/>
       <c r="C299" s="2"/>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A300" s="6"/>
       <c r="C300" s="2"/>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A301" s="6"/>
       <c r="C301" s="2"/>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A302" s="6"/>
       <c r="C302" s="2"/>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A303" s="6"/>
       <c r="C303" s="2"/>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A304" s="6"/>
       <c r="C304" s="2"/>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A305" s="6"/>
       <c r="C305" s="2"/>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A306" s="6"/>
       <c r="C306" s="2"/>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A307" s="6"/>
       <c r="C307" s="2"/>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A308" s="6"/>
       <c r="C308" s="2"/>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A309" s="6"/>
       <c r="C309" s="2"/>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A310" s="6"/>
       <c r="C310" s="2"/>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A311" s="6"/>
       <c r="C311" s="2"/>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A312" s="6"/>
       <c r="C312" s="2"/>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A313" s="6"/>
       <c r="C313" s="2"/>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A314" s="6"/>
       <c r="C314" s="2"/>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A315" s="6"/>
       <c r="C315" s="2"/>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A316" s="6"/>
       <c r="C316" s="2"/>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A317" s="6"/>
       <c r="C317" s="2"/>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A318" s="6"/>
       <c r="C318" s="2"/>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A319" s="6"/>
       <c r="C319" s="2"/>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A320" s="6"/>
       <c r="C320" s="2"/>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A321" s="6"/>
       <c r="C321" s="2"/>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A322" s="6"/>
       <c r="C322" s="2"/>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A323" s="6"/>
       <c r="C323" s="2"/>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A324" s="6"/>
       <c r="C324" s="2"/>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A325" s="6"/>
       <c r="C325" s="2"/>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A326" s="6"/>
       <c r="C326" s="2"/>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A327" s="6"/>
       <c r="C327" s="2"/>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A328" s="6"/>
       <c r="C328" s="2"/>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A329" s="6"/>
       <c r="C329" s="2"/>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A330" s="6"/>
       <c r="C330" s="2"/>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A331" s="6"/>
       <c r="C331" s="2"/>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A332" s="6"/>
       <c r="C332" s="2"/>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A333" s="6"/>
       <c r="C333" s="2"/>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A334" s="6"/>
       <c r="C334" s="2"/>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A335" s="6"/>
       <c r="C335" s="2"/>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A336" s="6"/>
       <c r="C336" s="2"/>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A337" s="6"/>
       <c r="C337" s="2"/>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A338" s="6"/>
       <c r="C338" s="2"/>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A339" s="6"/>
       <c r="C339" s="2"/>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A340" s="6"/>
       <c r="C340" s="2"/>
     </row>
@@ -5366,13 +5375,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="5"/>
+    <col min="1" max="1" width="11.453125" style="5"/>
     <col min="2" max="2" width="15" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>8</v>
       </c>
@@ -5380,7 +5389,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -5388,7 +5397,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -5410,13 +5419,13 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="5"/>
-    <col min="2" max="2" width="12.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.453125" style="5"/>
+    <col min="2" max="2" width="12.1796875" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
@@ -5424,7 +5433,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -5443,16 +5452,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="1"/>
-    <col min="4" max="4" width="21.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.453125" style="1"/>
+    <col min="4" max="4" width="21.453125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>20</v>
       </c>
@@ -5469,7 +5478,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -5480,7 +5489,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -5495,7 +5504,7 @@
       </c>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -5509,7 +5518,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -5521,103 +5530,103 @@
       </c>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="6"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="6"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="6"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="6"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="6"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="6"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="6"/>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="6"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="6"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="6"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="6"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="6"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="6"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="6"/>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="6"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="6"/>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="6"/>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="6"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="6"/>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="6"/>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="6"/>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="6"/>
       <c r="E27" s="2"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="6"/>
       <c r="E28" s="2"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="6"/>
       <c r="E29" s="2"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="6"/>
       <c r="E30" s="2"/>
     </row>
@@ -5629,22 +5638,24 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBA5138A-4932-4C79-884C-F418F522D4F6}">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="5"/>
-    <col min="2" max="2" width="33.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.453125" style="5"/>
+    <col min="2" max="2" width="33.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.1796875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="53.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" style="1"/>
+    <col min="6" max="6" width="53.54296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.453125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>19</v>
       </c>
@@ -5666,8 +5677,11 @@
       <c r="G1" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -5689,8 +5703,11 @@
       <c r="G2" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -5712,8 +5729,11 @@
       <c r="G3" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -5735,8 +5755,11 @@
       <c r="G4" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -5758,80 +5781,83 @@
       <c r="G5" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="6"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="6"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="6"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="6"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="6"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="6"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="6"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="6"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="6"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="6"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="6"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" s="6"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" s="6"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" s="6"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" s="6"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" s="6"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A22" s="6"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A23" s="6"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A24" s="6"/>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A25" s="6"/>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A26" s="6"/>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A27" s="6"/>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A28" s="6"/>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A29" s="6"/>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A30" s="6"/>
     </row>
   </sheetData>
